--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 9:14 AM</t>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>216.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Saturday, 27 September, 2025 9:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>216</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 9:15 AM</t>
+    <t>Saturday, 27 September, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -62,7 +62,22 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:03 AM</t>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>Saturday, 27 September, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +739,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>216</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>294</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +817,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -62,6 +62,42 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ATOMOXAPEX 18MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -77,7 +113,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:06 AM</t>
+    <t>Saturday, 27 September, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -772,38 +808,137 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>294</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>22</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>23</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>24</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>482</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +957,25 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -98,6 +98,21 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -113,7 +128,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:18 AM</t>
+    <t>Saturday, 27 September, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -907,38 +922,71 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>482</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>527.04499999999996</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1020,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:28 AM</t>
+    <t>Saturday, 27 September, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -128,7 +137,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:30 AM</t>
+    <t>Saturday, 27 September, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -901,7 +910,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -911,14 +920,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,14 +936,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -944,49 +953,82 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>527.04499999999996</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q13" s="12">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>581.04499999999996</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1067,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:33 AM</t>
+    <t>Saturday, 27 September, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>5:8</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -98,6 +113,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -117,9 +144,6 @@
   </si>
   <si>
     <t>45.0450</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -877,7 +901,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,14 +911,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,7 +927,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -920,11 +944,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -936,14 +960,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,14 +977,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,14 +993,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -993,42 +1017,108 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>581.04499999999996</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>589.245</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>50</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>51</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>52</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1162,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -161,7 +161,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:38 AM</t>
+    <t>Saturday, 27 September, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -161,7 +161,28 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:54 AM</t>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>Saturday, 27 September, 2025 10:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,38 +1108,104 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>589.245</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>51</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
         <v>52</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>53</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>56</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>52</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>619.245</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>57</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>58</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>59</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1172,10 +1259,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:55 AM</t>
+    <t>Saturday, 27 September, 2025 10:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -122,9 +137,6 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -182,7 +194,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:56 AM</t>
+    <t>Saturday, 27 September, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -955,7 +967,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -965,14 +977,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -981,14 +993,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -998,14 +1010,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1014,14 +1026,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1031,14 +1043,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1047,14 +1059,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1071,7 +1083,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1104,7 +1116,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1113,31 +1125,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1146,66 +1158,99 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>619.245</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>60</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>56</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>57</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>59</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>642.01499999999999</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>61</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>62</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>63</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1269,10 +1314,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -173,28 +173,34 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
     <t>26:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:18 AM</t>
+    <t>Saturday, 27 September, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1219,38 +1225,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>642.01499999999999</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>61</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>62</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>56</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>657.01499999999999</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
         <v>63</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>64</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>65</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1319,10 +1358,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -173,34 +173,40 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:21 AM</t>
+    <t>Saturday, 27 September, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1214,11 +1220,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1230,14 +1236,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1247,11 +1253,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1259,13 +1265,13 @@
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="P20" s="13">
-        <v>657.01499999999999</v>
+        <v>667.01499999999999</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c t="s" r="A21" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1273,13 +1279,13 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c t="s" r="G21" s="15">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c t="s" r="K21" s="17">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -206,7 +206,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:23 AM</t>
+    <t>Saturday, 27 September, 2025 11:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>NEW-CLAV 457MG/5ML SUSP. 80ML</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -173,6 +182,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8209:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -206,7 +224,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:38 AM</t>
+    <t>Saturday, 27 September, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,7 +1063,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1062,7 +1080,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1078,7 +1096,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1095,7 +1113,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1111,7 +1129,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1121,14 +1139,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,14 +1155,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1154,14 +1172,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1170,31 +1188,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1203,31 +1221,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1236,66 +1254,132 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>667.01499999999999</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>65</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>66</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>62</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>67</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>69</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>70</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>62</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>759.01499999999999</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>71</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>72</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>73</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1369,10 +1453,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TRITONE 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>-40.5900</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -191,6 +203,18 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>ZYMAGALLIN 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-15.8400</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -224,7 +248,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:48 AM</t>
+    <t>Saturday, 27 September, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1212,7 +1236,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,14 +1245,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1262,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,20 +1278,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1275,10 +1299,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,31 +1311,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,66 +1344,132 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>759.01499999999999</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>71</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>72</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>73</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>74</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>70</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>75</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>77</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>78</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>70</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>702.58500000000004</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>79</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>80</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>81</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1463,10 +1553,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>AVOBEANO CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
@@ -146,6 +158,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -221,9 +245,6 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -248,7 +269,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:52 AM</t>
+    <t>Saturday, 27 September, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,13 +1009,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1005,7 +1026,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,14 +1035,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1031,14 +1052,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1047,14 +1068,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1071,7 +1092,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1080,14 +1101,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,11 +1118,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1236,7 +1257,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1269,7 +1290,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,14 +1316,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1335,7 +1356,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,20 +1365,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1365,10 +1386,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,31 +1398,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,66 +1431,132 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>702.58500000000004</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>79</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>80</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>81</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>27</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>82</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>84</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>85</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>27</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>82</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>828.58500000000004</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>86</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>87</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>88</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1563,10 +1650,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:53 AM</t>
+    <t>Saturday, 27 September, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -251,6 +251,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -269,7 +281,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:54 AM</t>
+    <t>Saturday, 27 September, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1514,49 +1526,82 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>828.58500000000004</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>88</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>89</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>27</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>86</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>87</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>88</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>833.58500000000004</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>90</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>91</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>92</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1660,10 +1705,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:55 AM</t>
+    <t>Saturday, 27 September, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -281,7 +293,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 12:14 PM</t>
+    <t>Saturday, 27 September, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1186,7 +1198,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1196,11 +1208,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>39</v>
@@ -1212,14 +1224,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1252,7 +1264,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1262,14 +1274,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1278,14 +1290,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1302,7 +1314,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,7 +1347,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1368,7 +1380,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,14 +1389,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1394,14 +1406,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,14 +1422,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1427,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1456,7 +1468,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1467,7 +1479,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1559,49 +1571,82 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>833.58500000000004</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>93</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>27</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>90</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>91</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>92</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>886.58500000000004</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>94</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>95</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>96</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1710,10 +1755,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 12:19 PM</t>
+    <t>Saturday, 27 September, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 12:26 PM</t>
+    <t>Saturday, 27 September, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -215,6 +224,15 @@
     <t>-40.5900</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -293,7 +311,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 12:44 PM</t>
+    <t>Saturday, 27 September, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1132,7 +1150,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1165,7 +1183,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1198,7 +1216,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1208,14 +1226,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1224,14 +1242,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1264,7 +1282,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1274,11 +1292,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>39</v>
@@ -1290,14 +1308,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1314,7 +1332,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1330,7 +1348,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1340,14 +1358,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1356,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1373,14 +1391,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1389,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1406,14 +1424,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1422,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1439,14 +1457,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1472,14 +1490,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1488,31 +1506,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,31 +1539,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1554,14 +1572,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,11 +1589,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1587,14 +1605,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1604,49 +1622,115 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>886.58500000000004</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>94</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>95</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>27</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>96</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>98</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>99</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>27</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>96</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>960.58500000000004</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>100</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>101</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>102</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1760,10 +1844,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>45.0450</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>TRITONE 200MG 30 TAB</t>
@@ -1414,7 +1423,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1424,14 +1433,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1440,14 +1449,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1464,7 +1473,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1480,7 +1489,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1490,14 +1499,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1506,14 +1515,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1532,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1560,10 +1569,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,31 +1581,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,14 +1614,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,11 +1631,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1655,11 +1664,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,49 +1697,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>960.58500000000004</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>101</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>102</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>27</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>99</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>100</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>101</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>102</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>991.58500000000004</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>103</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>104</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>105</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1854,10 +1896,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -320,7 +320,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 12:47 PM</t>
+    <t>Saturday, 27 September, 2025 12:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 2</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -302,6 +311,12 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -320,7 +335,19 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 12:59 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 27 September, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,7 +1681,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1664,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1680,14 +1707,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1697,11 +1724,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1713,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1730,49 +1757,148 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>991.58500000000004</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>102</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>103</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>27</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>104</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>105</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>106</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>107</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>27</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>104</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>108</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>109</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>27</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>110</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1256.585</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>112</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>113</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>114</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1901,10 +2027,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 1:10 PM</t>
+    <t>Saturday, 27 September, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -116,6 +116,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -128,9 +143,6 @@
     <t>22.7700</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -347,7 +356,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 1:18 PM</t>
+    <t>Saturday, 27 September, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1168,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1186,7 +1195,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,14 +1205,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1212,14 +1221,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,11 +1238,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1245,14 +1254,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1262,11 +1271,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1278,14 +1287,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1302,7 +1311,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1318,7 +1327,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1328,11 +1337,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>39</v>
@@ -1344,14 +1353,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1384,7 +1393,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1401,7 +1410,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1417,7 +1426,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1436,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1483,7 +1492,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1493,14 +1502,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1509,14 +1518,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1533,7 +1542,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1549,7 +1558,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1568,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,14 +1584,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,10 +1638,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,31 +1650,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1683,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1714,7 +1723,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,11 +1733,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1740,14 +1749,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,11 +1766,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1773,14 +1782,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,11 +1799,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1806,14 +1815,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,11 +1832,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,49 +1865,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1256.585</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>112</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>27</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>113</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>114</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1387.2650000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>115</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>116</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>117</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2042,10 +2084,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -356,7 +356,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 1:21 PM</t>
+    <t>Saturday, 27 September, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>75.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
@@ -1146,7 +1158,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1155,31 +1167,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1188,31 +1200,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1228,7 +1240,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1238,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1254,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1271,11 +1283,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1304,11 +1316,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1320,14 +1332,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1344,7 +1356,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1360,7 +1372,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,14 +1382,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1386,14 +1398,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1403,14 +1415,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1419,14 +1431,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,14 +1448,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,14 +1464,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1476,7 +1488,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1492,7 +1504,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1502,14 +1514,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1542,7 +1554,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1558,7 +1570,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1568,14 +1580,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1608,7 +1620,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1696,7 +1708,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1707,7 +1719,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1723,7 +1735,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1733,11 +1745,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1789,7 +1801,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1832,7 +1844,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1865,11 +1877,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1898,49 +1910,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1387.2650000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>115</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>116</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>27</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>117</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1410.2650000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>119</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>120</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>121</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2089,10 +2134,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 2:16 PM</t>
+    <t>Saturday, 27 September, 2025 3:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 3:50 PM</t>
+    <t>Saturday, 27 September, 2025 3:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -65,18 +80,12 @@
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ATOMOXAPEX 18MG 30 CAPS.</t>
   </si>
   <si>
@@ -101,6 +110,27 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -140,9 +170,6 @@
     <t>130.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -155,6 +182,36 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -212,6 +269,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -245,9 +311,6 @@
     <t>TRITONE 200MG 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>123.00</t>
   </si>
   <si>
@@ -308,7 +371,10 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 2</t>
@@ -368,7 +434,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 3:51 PM</t>
+    <t>Saturday, 27 September, 2025 5:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1075,7 +1141,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1085,14 +1151,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1101,31 +1167,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1134,31 +1200,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1167,14 +1233,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1184,14 +1250,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1200,31 +1266,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1233,14 +1299,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1250,14 +1316,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1266,14 +1332,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1283,14 +1349,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1299,31 +1365,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1332,14 +1398,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1356,7 +1422,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1372,7 +1438,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1448,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1464,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1415,14 +1481,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1431,14 +1497,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1455,7 +1521,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1471,7 +1537,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1488,7 +1554,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1504,7 +1570,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1580,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,14 +1596,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,14 +1613,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,14 +1629,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,14 +1646,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1596,14 +1662,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,14 +1679,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,14 +1695,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,14 +1712,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1662,14 +1728,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,14 +1745,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1695,14 +1761,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,14 +1778,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,31 +1794,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1761,31 +1827,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,31 +1860,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,31 +1893,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,31 +1926,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,28 +1959,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1926,66 +1992,330 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>117</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>118</v>
       </c>
-      <c t="s" r="Q35" s="12">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>30</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>119</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>120</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>30</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>112</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>122</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>30</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>123</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>125</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>126</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>30</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>127</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>129</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1410.2650000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>119</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>120</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>121</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>30</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>81</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>131</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>132</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>30</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>133</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>135</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>136</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>30</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>133</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>137</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>138</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>30</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>139</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1728.4749999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>141</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>142</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>143</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2139,10 +2469,50 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -434,7 +434,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 5:20 PM</t>
+    <t>Saturday, 27 September, 2025 5:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>264.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -239,6 +248,18 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -434,7 +455,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 5:21 PM</t>
+    <t>Saturday, 27 September, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1570,7 +1591,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1603,7 +1624,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1636,7 +1657,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1646,14 +1667,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1679,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1712,14 +1733,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,11 +1766,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>36</v>
@@ -1761,14 +1782,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,14 +1799,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1811,11 +1832,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>36</v>
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,11 +1865,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>36</v>
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1877,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1926,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2009,14 +2030,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2025,31 +2046,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,31 +2079,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2091,31 +2112,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,11 +2228,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2240,11 +2261,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2273,49 +2294,148 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1728.4749999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>139</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>30</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>140</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>141</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>142</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>143</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>30</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>140</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>144</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>145</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>30</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>146</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2262.4749999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>148</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>149</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>150</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2509,10 +2629,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -455,7 +455,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 5:27 PM</t>
+    <t>Saturday, 27 September, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -44,30 +44,39 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACTRAPID HM 100 I.U./ML 10 ML VIAL</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>75.50</t>
+  </si>
+  <si>
+    <t>75.5000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -122,6 +131,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONJYCLEAR 0.1% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -230,6 +248,12 @@
     <t>264.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -455,7 +479,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 5:32 PM</t>
+    <t>Saturday, 27 September, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1146,7 +1170,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1155,7 +1179,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1172,14 +1196,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1195,7 +1219,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1205,11 +1229,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1221,28 +1245,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1254,20 +1278,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1278,7 +1302,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1287,14 +1311,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1304,14 +1328,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1327,7 +1351,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1337,11 +1361,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1353,14 +1377,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1370,14 +1394,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1386,31 +1410,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1419,14 +1443,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1436,14 +1460,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1452,31 +1476,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1485,14 +1509,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1509,7 +1533,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1525,7 +1549,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1551,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1584,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1608,7 +1632,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1624,7 +1648,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1657,7 +1681,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1690,7 +1714,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1704,10 +1728,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1716,14 +1740,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,11 +1757,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1749,14 +1773,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1773,7 +1797,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1789,7 +1813,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1806,7 +1830,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1822,7 +1846,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1832,14 +1856,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,14 +1889,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1881,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,14 +1922,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +1988,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,14 +2021,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2013,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2054,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,14 +2087,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,14 +2136,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,31 +2169,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,31 +2202,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,20 +2235,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2235,7 +2259,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2257,7 +2281,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2265,7 +2289,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2277,31 +2301,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,28 +2334,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2343,28 +2367,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2383,59 +2407,158 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2262.4749999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>146</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>147</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>33</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>148</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>150</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>151</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>33</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>148</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>152</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>153</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>33</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>154</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2381.9749999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>156</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>157</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>158</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2644,10 +2767,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 5:55 PM</t>
+    <t>Saturday, 27 September, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -479,7 +488,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:00 PM</t>
+    <t>Saturday, 27 September, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2044,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>39</v>
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2110,7 +2119,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2127,7 +2136,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2143,7 +2152,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2160,7 +2169,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2176,7 +2185,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,10 +2265,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,31 +2277,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2308,7 +2317,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,7 +2343,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2516,49 +2525,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2381.9749999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>156</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>33</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>157</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>158</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2464.4749999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>159</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>160</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>161</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2782,10 +2824,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -246,12 +246,6 @@
   </si>
   <si>
     <t>264.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
   </si>
   <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
@@ -1723,7 +1717,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1737,10 +1731,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1749,14 +1743,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,11 +1760,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1782,14 +1776,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,11 +1793,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1815,7 +1809,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1832,11 +1826,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1848,14 +1842,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,14 +1859,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,11 +1892,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>39</v>
@@ -1914,14 +1908,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1931,11 +1925,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>39</v>
@@ -1947,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,11 +1958,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>39</v>
@@ -1980,14 +1974,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +1991,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,7 +2007,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2030,14 +2024,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2046,14 +2040,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,11 +2057,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>39</v>
@@ -2079,14 +2073,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,11 +2090,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>39</v>
@@ -2112,14 +2106,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,14 +2123,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,14 +2139,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,14 +2156,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,14 +2189,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,14 +2205,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,14 +2222,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2238,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2255,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,31 +2271,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2310,14 +2304,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,14 +2321,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2360,14 +2354,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,11 +2387,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2409,14 +2403,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2426,7 +2420,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2449,7 +2443,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2459,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2475,14 +2469,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,11 +2486,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2525,82 +2519,49 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="A50" s="7">
-        <v>44</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c t="s" r="C50" s="8">
-        <v>155</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c t="s" r="H50" s="9">
-        <v>156</v>
-      </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c t="s" r="L50" s="10">
-        <v>33</v>
-      </c>
-      <c r="M50" s="10"/>
-      <c t="s" r="N50" s="8">
+      <c r="P50" s="13">
+        <v>2442.4749999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>157</v>
       </c>
-      <c r="O50" s="8"/>
-      <c t="s" r="P50" s="11">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
         <v>158</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2464.4749999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
         <v>159</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>160</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>161</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2824,15 +2785,10 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -113,10 +113,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
   </si>
   <si>
     <t>CONGESTAL 20 TABS</t>
@@ -482,7 +482,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:01 PM</t>
+    <t>Saturday, 27 September, 2025 6:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="P50" s="13">
-        <v>2442.4749999999999</v>
+        <v>2517.4749999999999</v>
       </c>
       <c r="Q50" s="13"/>
     </row>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -128,9 +140,6 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONJYCLEAR 0.1% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -176,6 +185,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -326,6 +347,21 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>21.1500</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -338,9 +374,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -404,9 +437,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>-15.8400</t>
   </si>
   <si>
@@ -422,7 +452,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 2</t>
@@ -470,6 +503,15 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -482,7 +524,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:06 PM</t>
+    <t>Saturday, 27 September, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1264,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1239,7 +1281,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1248,14 +1290,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1288,13 +1330,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1327,18 +1369,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1354,7 +1396,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1371,7 +1413,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1387,7 +1429,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1404,7 +1446,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1420,7 +1462,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1430,14 +1472,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1446,14 +1488,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1505,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,31 +1521,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1512,14 +1554,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,14 +1571,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1545,20 +1587,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1569,7 +1611,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1585,7 +1627,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1595,14 +1637,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1611,14 +1653,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1635,7 +1677,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1651,7 +1693,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1668,7 +1710,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1684,7 +1726,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1694,14 +1736,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1710,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1727,11 +1769,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1743,14 +1785,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1760,11 +1802,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1776,7 +1818,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1793,11 +1835,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1809,14 +1851,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1826,11 +1868,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1842,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,14 +1901,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1875,14 +1917,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1892,14 +1934,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1915,7 +1957,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1925,14 +1967,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1941,14 +1983,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2007,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2066,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2064,7 +2106,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2080,7 +2122,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2123,14 +2165,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2139,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,14 +2198,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2172,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,14 +2231,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2212,7 +2254,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2245,7 +2287,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2255,14 +2297,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2271,31 +2313,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,31 +2346,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2337,31 +2379,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,28 +2412,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2403,31 +2445,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,28 +2478,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2469,28 +2511,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2502,66 +2544,198 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2517.4749999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>157</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>158</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>159</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>37</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>160</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>162</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>163</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>37</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>160</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>164</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>37</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>165</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>167</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>168</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>37</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>169</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2586.9949999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>171</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>172</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>173</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2785,10 +2959,30 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:10 PM</t>
+    <t>Saturday, 27 September, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>4.2000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
   </si>
   <si>
@@ -221,6 +230,24 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -278,6 +305,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>NEW-CLAV 457MG/5ML SUSP. 80ML</t>
   </si>
   <si>
@@ -323,9 +359,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -374,10 +407,13 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>136.50</t>
   </si>
   <si>
-    <t>45.0450</t>
+    <t>90.0900</t>
   </si>
   <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
@@ -401,6 +437,9 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -434,9 +473,6 @@
     <t>ZYMAGALLIN 30 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>-15.8400</t>
   </si>
   <si>
@@ -524,7 +560,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:11 PM</t>
+    <t>Saturday, 27 September, 2025 6:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1231,7 +1267,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1241,14 +1277,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,14 +1293,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1274,14 +1310,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1290,14 +1326,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1307,14 +1343,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1323,14 +1359,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1363,13 +1399,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1396,24 +1432,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1458,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,14 +1475,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,14 +1491,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1472,14 +1508,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1488,14 +1524,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1512,7 +1548,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1545,7 +1581,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1554,14 +1590,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,14 +1607,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,31 +1623,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1620,31 +1656,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1653,14 +1689,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1677,7 +1713,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,7 +1729,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1710,7 +1746,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1726,7 +1762,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,14 +1772,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,14 +1788,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1805,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,14 +1821,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1838,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,14 +1854,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1842,7 +1878,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1858,7 +1894,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1891,7 +1927,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1924,7 +1960,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,11 +1970,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1950,14 +1986,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +2003,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +2019,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,14 +2036,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2016,14 +2052,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2069,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2085,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2102,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2118,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2106,7 +2142,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,7 +2158,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2168,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2184,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2201,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,14 +2217,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2234,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,14 +2250,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2267,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2283,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2300,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,14 +2316,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2349,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2366,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2382,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2399,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2415,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,14 +2432,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,28 +2448,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2445,31 +2481,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,31 +2514,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,31 +2547,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,28 +2580,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2584,24 +2620,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,28 +2646,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2650,21 +2686,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2676,66 +2712,198 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2586.9949999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>170</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>171</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>41</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>172</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>173</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>174</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>175</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>41</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>172</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>176</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>41</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>177</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>179</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>180</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>41</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>181</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2764.1399999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>183</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>184</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>185</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2979,10 +3147,30 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -299,9 +308,6 @@
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -494,6 +500,18 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>196:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 2</t>
   </si>
   <si>
@@ -560,7 +578,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:20 PM</t>
+    <t>Saturday, 27 September, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1747,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1762,7 +1780,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1795,7 +1813,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1828,7 +1846,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1861,7 +1879,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1871,11 +1889,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1911,7 +1929,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1960,7 +1978,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2019,7 +2037,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2069,11 +2087,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2085,7 +2103,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2102,11 +2120,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,11 +2186,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2201,7 +2219,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2224,7 +2242,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2234,11 +2252,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2587,24 +2605,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,7 +2664,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2729,7 +2747,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2785,7 +2803,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2795,11 +2813,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2818,7 +2836,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,11 +2846,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,49 +2879,115 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2764.1399999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>182</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>41</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>183</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>184</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>185</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>186</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>41</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>187</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2819.1399999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>189</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>190</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>191</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3167,10 +3251,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:23 PM</t>
+    <t>Saturday, 27 September, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>375.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -413,13 +422,10 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
-    <t>90.0900</t>
+    <t>226.5900</t>
   </si>
   <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
@@ -443,9 +449,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -578,7 +581,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:26 PM</t>
+    <t>Saturday, 27 September, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1592,14 +1595,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1608,14 +1611,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1625,14 +1628,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1641,14 +1644,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1674,28 +1677,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1707,28 +1710,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1740,14 +1743,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1780,7 +1783,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1813,7 +1816,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1846,7 +1849,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1879,7 +1882,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1912,7 +1915,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1922,11 +1925,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1962,7 +1965,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2011,7 +2014,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,11 +2024,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2054,14 +2057,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2094,7 +2097,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2110,7 +2113,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2169,14 +2172,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,14 +2189,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2202,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2242,7 +2245,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,11 +2255,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2268,14 +2271,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,7 +2288,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2308,7 +2311,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2325,7 +2328,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2341,7 +2344,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2354,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,14 +2370,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,14 +2387,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2407,7 +2410,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2420,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2433,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2453,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,14 +2535,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,14 +2618,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,31 +2634,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2717,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,11 +2783,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,11 +2816,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,11 +2849,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,11 +2882,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2895,14 +2898,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2912,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2928,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,49 +2948,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2819.1399999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>186</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>187</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>41</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>188</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>189</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3330.6399999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>190</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>191</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>192</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3261,10 +3297,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -203,6 +215,15 @@
     <t>4.2000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
     <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
   </si>
   <si>
@@ -218,9 +239,6 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>396.00</t>
   </si>
   <si>
@@ -581,7 +599,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:27 PM</t>
+    <t>Saturday, 27 September, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,7 +1504,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1496,11 +1514,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1512,14 +1530,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1529,14 +1547,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1545,14 +1563,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1562,14 +1580,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1578,14 +1596,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1613,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,14 +1629,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,14 +1646,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1668,7 +1686,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,7 +1719,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1723,7 +1741,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1731,7 +1749,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,11 +1778,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1776,28 +1794,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1849,7 +1867,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1882,7 +1900,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1915,7 +1933,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1948,7 +1966,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,11 +1976,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2007,14 +2025,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2031,7 +2049,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2047,7 +2065,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,11 +2075,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2073,14 +2091,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,14 +2108,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2106,7 +2124,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2123,7 +2141,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2146,7 +2164,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2163,7 +2181,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2179,7 +2197,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,11 +2207,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2205,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,14 +2240,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2238,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,14 +2273,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2271,14 +2289,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,11 +2306,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,11 +2339,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2337,14 +2355,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,14 +2372,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2377,7 +2395,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,14 +2405,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,7 +2421,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2436,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>138</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>92</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2476,7 +2494,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2509,7 +2527,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2526,7 +2544,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2542,7 +2560,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2559,7 +2577,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2575,7 +2593,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2619,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2636,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,31 +2685,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,31 +2718,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>163</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,10 +2772,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,7 +2784,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2849,7 +2867,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2905,7 +2923,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2915,11 +2933,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2938,7 +2956,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,11 +2966,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2981,49 +2999,115 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3330.6399999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>189</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>41</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>190</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>191</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>192</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>193</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>41</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>194</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3389.4000000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>196</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>197</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>198</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3302,10 +3386,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>سرنجات انسولين</t>
   </si>
   <si>
-    <t>196:0</t>
+    <t>200:0</t>
   </si>
   <si>
     <t>7.00</t>
@@ -599,7 +599,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:30 PM</t>
+    <t>Saturday, 27 September, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1867,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -503,15 +503,21 @@
     <t>-15.8400</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
     <t>27:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -599,7 +605,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:38 PM</t>
+    <t>Saturday, 27 September, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2758,7 +2764,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2791,7 +2797,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2900,11 +2906,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2933,7 +2939,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2956,7 +2962,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,11 +2972,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2999,11 +3005,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3022,7 +3028,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3065,49 +3071,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3389.4000000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>194</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>195</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>41</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>196</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>197</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3439.4000000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>198</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>199</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>200</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3396,10 +3435,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:53 PM</t>
+    <t>Saturday, 27 September, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>BIOVITA 60 GUMMIES</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>OMEGA RX JELLY CANDY 60 PCS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -560,6 +578,18 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -569,9 +599,6 @@
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
-    <t>26:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -605,7 +632,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 6:55 PM</t>
+    <t>Saturday, 27 September, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1537,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1520,14 +1547,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1536,14 +1563,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1576,7 +1603,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1593,7 +1620,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1609,7 +1636,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1626,7 +1653,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1642,7 +1669,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,14 +1679,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1685,14 +1712,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1728,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,14 +1745,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,14 +1761,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1778,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1788,7 +1815,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1800,20 +1827,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1840,21 +1867,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1906,7 +1933,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1939,7 +1966,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1972,7 +1999,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2005,7 +2032,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2038,7 +2065,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,11 +2075,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2088,7 +2115,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2137,7 +2164,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,11 +2174,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2163,7 +2190,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2220,7 +2247,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2236,7 +2263,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2279,11 +2306,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,11 +2438,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2467,7 +2494,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,7 +2520,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>98</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2566,7 +2593,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2599,7 +2626,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2616,7 +2643,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2632,7 +2659,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2649,7 +2676,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2665,7 +2692,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>158</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,28 +2784,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -2790,31 +2817,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>171</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,7 +2916,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2966,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,7 +2999,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3038,11 +3065,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,11 +3098,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3115,38 +3142,137 @@
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3439.4000000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>198</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>199</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>41</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>196</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>200</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>41</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>201</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>203</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>204</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>41</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>205</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3919.4000000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>207</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>208</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>209</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3440,10 +3566,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -407,6 +407,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -422,6 +434,27 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -467,12 +500,6 @@
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>TRITONE 200MG 30 TAB</t>
   </si>
   <si>
@@ -539,10 +566,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -611,6 +635,12 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
+    <t>لونا انبوبه كبير</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -623,16 +653,13 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 7:07 PM</t>
+    <t>Saturday, 27 September, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2461,21 +2488,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,11 +2531,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2599,7 +2626,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2610,7 +2637,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2626,7 +2653,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2643,7 +2670,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2659,7 +2686,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>164</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,7 +2844,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,20 +2877,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2874,7 +2901,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,31 +2910,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2916,31 +2943,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2973,7 +3000,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2989,7 +3016,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,11 +3026,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3098,11 +3125,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,11 +3158,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,11 +3191,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,7 +3224,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3220,7 +3247,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,49 +3257,214 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3919.4000000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>206</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>207</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>41</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>204</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>208</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>170</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>41</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>130</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>209</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>41</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>130</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>210</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>41</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>211</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>213</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>185</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>41</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>214</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4173</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>216</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>217</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>218</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3581,10 +3773,35 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -77,28 +77,49 @@
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>102.00</t>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>216.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>216.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
   </si>
   <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
@@ -194,12 +215,18 @@
     <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>375.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -389,9 +416,6 @@
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>265.00</t>
   </si>
   <si>
@@ -431,9 +455,6 @@
     <t>204.00</t>
   </si>
   <si>
-    <t>67.3200</t>
-  </si>
-  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -512,9 +533,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -563,12 +581,33 @@
     <t>27:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -608,12 +647,6 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -635,6 +668,9 @@
     <t>11:0</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم كير اند مور75مل</t>
   </si>
   <si>
@@ -650,6 +686,18 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -659,7 +707,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 7:37 PM</t>
+    <t>Saturday, 27 September, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1480,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1442,14 +1490,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1465,7 +1513,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1475,14 +1523,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1491,14 +1539,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1515,7 +1563,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1531,21 +1579,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1557,14 +1605,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1597,13 +1645,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1614,7 +1662,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1647,7 +1695,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1663,7 +1711,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1673,14 +1721,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1689,14 +1737,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1706,14 +1754,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1722,14 +1770,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1739,14 +1787,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1755,14 +1803,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1779,7 +1827,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1795,7 +1843,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1805,14 +1853,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1821,14 +1869,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1838,14 +1886,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1854,14 +1902,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1871,14 +1919,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1887,28 +1935,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1920,14 +1968,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1937,14 +1985,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1953,14 +2001,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1970,14 +2018,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1986,31 +2034,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2019,14 +2067,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2043,7 +2091,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2076,7 +2124,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2109,7 +2157,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2125,7 +2173,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,14 +2183,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2151,14 +2199,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,14 +2216,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2184,14 +2232,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2201,14 +2249,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2217,14 +2265,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,14 +2282,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2250,14 +2298,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2267,14 +2315,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2283,14 +2331,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2300,11 +2348,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2316,14 +2364,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,7 +2381,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2356,7 +2404,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2373,7 +2421,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2389,7 +2437,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,11 +2447,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2415,14 +2463,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2432,14 +2480,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2448,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,14 +2513,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2481,31 +2529,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2612,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2580,31 +2628,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2613,31 +2661,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2646,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2663,14 +2711,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2679,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,14 +2744,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2712,7 +2760,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2725,18 +2773,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2745,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2778,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2818,7 +2866,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2835,7 +2883,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2851,7 +2899,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2868,7 +2916,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2884,7 +2932,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2910,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,31 +3024,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3009,31 +3057,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,31 +3090,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>185</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,31 +3123,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,28 +3156,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3141,28 +3189,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3174,31 +3222,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3207,28 +3255,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3240,31 +3288,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,20 +3321,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3306,28 +3354,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3339,28 +3387,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3372,28 +3420,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3405,66 +3453,297 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4173</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>217</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>218</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>48</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>215</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>216</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>217</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>218</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>219</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>48</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>215</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>176</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>48</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>138</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>221</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>48</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>138</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>48</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>223</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>226</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>48</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>227</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>195</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>48</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>230</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4424.1999999999998</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>232</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>233</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>234</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3798,10 +4077,45 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -455,18 +455,6 @@
     <t>204.00</t>
   </si>
   <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -707,7 +695,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 7:42 PM</t>
+    <t>Saturday, 27 September, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2734,24 +2722,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2760,7 +2748,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2773,15 +2761,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2793,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2817,7 +2805,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2826,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2850,7 +2838,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>162</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2859,14 +2847,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,14 +2864,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,14 +2880,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2909,14 +2897,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2925,14 +2913,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,14 +2930,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +2963,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +2996,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3029,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3062,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,31 +3078,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,11 +3161,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3196,7 +3184,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3222,7 +3210,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3239,14 +3227,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,14 +3243,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3279,7 +3267,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3295,7 +3283,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3305,14 +3293,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,11 +3359,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3387,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3404,11 +3392,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3420,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,11 +3425,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3453,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3470,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3486,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3503,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3519,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3536,11 +3524,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3552,14 +3540,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3573,7 +3561,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3585,7 +3573,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3602,11 +3590,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3618,14 +3606,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3658,7 +3646,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3668,82 +3656,49 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4386.6000000000004</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>228</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="A78" s="7">
-        <v>72</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c t="s" r="C78" s="8">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>229</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c t="s" r="H78" s="9">
-        <v>195</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c t="s" r="L78" s="10">
-        <v>48</v>
-      </c>
-      <c r="M78" s="10"/>
-      <c t="s" r="N78" s="8">
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
         <v>230</v>
       </c>
-      <c r="O78" s="8"/>
-      <c t="s" r="P78" s="11">
-        <v>231</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4424.1999999999998</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>232</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>233</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>234</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4107,15 +4062,10 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -281,6 +281,12 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -320,6 +326,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -581,6 +596,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -669,9 +693,6 @@
   </si>
   <si>
     <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -2062,7 +2083,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,11 +2159,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,11 +2192,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2204,11 +2225,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2220,7 +2241,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2233,15 +2254,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,7 +2390,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2392,7 +2413,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2409,7 +2430,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2435,11 +2456,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,11 +2522,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2517,7 +2538,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,28 +2637,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,11 +2687,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2682,20 +2703,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2703,7 +2724,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2715,31 +2736,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2755,7 +2776,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2769,10 +2790,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,31 +2802,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,7 +2835,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2885,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2986,7 +3007,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3085,21 +3106,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3118,24 +3139,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3151,7 +3172,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3250,7 +3271,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,7 +3297,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3326,11 +3347,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3392,7 +3413,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3415,7 +3436,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3425,11 +3446,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,11 +3479,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,11 +3512,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,11 +3545,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,11 +3578,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3573,7 +3594,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3623,11 +3644,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3646,7 +3667,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,49 +3677,148 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4386.6000000000004</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>226</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>48</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>227</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>228</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>229</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>48</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>230</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>199</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>48</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>233</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4578.9499999999998</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>235</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>236</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>237</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4062,10 +4182,25 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -665,6 +665,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -689,6 +695,15 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -707,6 +722,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -716,7 +737,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 7:43 PM</t>
+    <t>Saturday, 27 September, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3535,7 +3556,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3545,11 +3566,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,11 +3599,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3601,7 +3622,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,11 +3632,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,11 +3665,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3660,14 +3681,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3693,7 +3714,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3710,11 +3731,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,49 +3797,148 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4578.9499999999998</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>234</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>48</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>235</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>237</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>238</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>48</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>41</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>239</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>199</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>48</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>240</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4678.9499999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>242</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>243</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>244</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4197,10 +4317,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -383,6 +383,15 @@
     <t>264.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -737,7 +746,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 7:45 PM</t>
+    <t>Saturday, 27 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,24 +2476,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2493,7 +2502,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,7 +2559,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2566,7 +2575,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2698,7 +2707,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2731,21 +2740,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2757,28 +2766,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2823,31 +2832,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2869,7 +2878,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2896,7 +2905,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2979,7 +2988,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3061,7 +3070,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3160,7 +3169,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3186,31 +3195,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3226,7 +3235,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3309,7 +3318,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,7 +3360,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3441,7 +3450,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3457,7 +3466,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,11 +3476,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3622,7 +3631,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,11 +3641,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3665,11 +3674,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3787,7 +3796,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3834,7 +3843,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3896,49 +3905,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4678.9499999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>242</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>202</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>48</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>243</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>244</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4770.5249999999996</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>245</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>246</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>247</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4332,10 +4374,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 7:50 PM</t>
+    <t>Saturday, 27 September, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>91.5750</t>
+  </si>
+  <si>
+    <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
   </si>
   <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
@@ -2509,7 +2518,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,11 +2528,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2535,7 +2544,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,7 +2601,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2608,7 +2617,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,11 +2693,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2740,7 +2749,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2773,21 +2782,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2799,28 +2808,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2865,31 +2874,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2911,7 +2920,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2938,7 +2947,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3004,7 +3013,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3021,7 +3030,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3037,7 +3046,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3103,7 +3112,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3202,7 +3211,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,31 +3237,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3268,7 +3277,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3351,7 +3360,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>202</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>205</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3433,7 +3442,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3483,7 +3492,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3499,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3664,7 +3673,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3829,7 +3838,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3876,7 +3885,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3905,11 +3914,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3938,49 +3947,82 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4770.5249999999996</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>245</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>205</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>48</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>246</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>247</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4947.5249999999996</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>248</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>249</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>250</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4379,10 +4421,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -755,7 +755,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:09 PM</t>
+    <t>Saturday, 27 September, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -755,7 +755,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:29 PM</t>
+    <t>Saturday, 27 September, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>375.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -590,9 +599,6 @@
     <t>املاح افونا</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -635,7 +641,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -755,7 +761,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:30 PM</t>
+    <t>Saturday, 27 September, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1924,7 +1930,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1934,14 +1940,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1957,7 +1963,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,14 +1973,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1983,14 +1989,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2000,14 +2006,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2033,14 +2039,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2070,7 +2076,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -2082,20 +2088,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2122,13 +2128,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2136,10 +2142,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2169,10 +2175,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2181,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2221,7 +2227,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2254,7 +2260,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2287,13 +2293,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2320,13 +2326,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2353,7 +2359,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2386,7 +2392,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,11 +2402,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2436,7 +2442,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2485,13 +2491,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2502,7 +2508,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2518,13 +2524,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2535,7 +2541,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2551,7 +2557,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,11 +2567,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2577,7 +2583,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,7 +2640,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2650,7 +2656,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,11 +2732,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2742,14 +2748,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2788,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2815,21 +2821,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2841,28 +2847,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,11 +2897,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2907,31 +2913,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2953,7 +2959,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2980,7 +2986,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3046,7 +3052,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3063,7 +3069,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3079,7 +3085,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3105,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3145,7 +3151,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3161,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3244,7 +3250,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3260,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,31 +3276,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3310,7 +3316,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3326,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3353,11 +3359,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,7 +3408,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,11 +3557,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,11 +3590,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3607,7 +3613,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,11 +3623,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3640,7 +3646,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,11 +3656,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3673,7 +3679,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,11 +3689,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3699,14 +3705,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,11 +3722,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3739,7 +3745,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,11 +3755,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3765,14 +3771,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,11 +3788,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,11 +3821,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3831,14 +3837,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,14 +3854,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,14 +3870,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,14 +3887,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3904,7 +3910,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3914,11 +3920,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,11 +3953,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3970,7 +3976,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,49 +3986,82 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4947.5249999999996</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>247</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>207</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>48</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>248</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>249</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4978.5249999999996</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
         <v>250</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>251</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>252</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4426,10 +4465,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -335,6 +335,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -551,6 +560,9 @@
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
+    <t>TOTACAL 30 TABS</t>
+  </si>
+  <si>
     <t>TRITONE 200MG 30 TAB</t>
   </si>
   <si>
@@ -761,7 +773,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:31 PM</t>
+    <t>Saturday, 27 September, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2326,13 +2338,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2343,7 +2355,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2359,13 +2371,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2392,7 +2404,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2425,7 +2437,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,11 +2447,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2475,7 +2487,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2524,13 +2536,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2541,7 +2553,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2557,13 +2569,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2574,7 +2586,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2590,7 +2602,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,11 +2612,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2616,7 +2628,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2673,7 +2685,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2689,7 +2701,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2821,7 +2833,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2854,21 +2866,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2880,28 +2892,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2946,31 +2958,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3019,7 +3031,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3085,7 +3097,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3102,7 +3114,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3118,7 +3130,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3184,7 +3196,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,28 +3321,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3349,24 +3361,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3382,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,7 +3486,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,7 +3552,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,11 +3635,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3656,7 +3668,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3712,7 +3724,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3837,7 +3849,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3920,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,49 +4031,115 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>249</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4978.5249999999996</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>250</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>48</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>41</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>251</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>211</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>48</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>252</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5104.2650000000003</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>254</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>255</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>256</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4470,10 +4548,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -308,120 +308,123 @@
     <t>22.7700</t>
   </si>
   <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>264.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
+    <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
     <t>54.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>264.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>91.5750</t>
-  </si>
-  <si>
-    <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -572,6 +575,12 @@
     <t>-40.5900</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -654,18 +663,6 @@
   </si>
   <si>
     <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>200:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 2</t>
@@ -2239,7 +2236,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2272,7 +2269,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2305,7 +2302,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2322,7 +2319,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2338,13 +2335,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2355,7 +2352,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2371,13 +2368,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2404,7 +2401,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2437,7 +2434,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,11 +2444,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2463,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2645,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2661,7 +2658,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2678,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2694,7 +2691,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2711,11 +2708,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2727,7 +2724,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2744,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2760,7 +2757,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2777,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2793,7 +2790,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2810,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2826,7 +2823,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2843,11 +2840,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2859,7 +2856,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2876,11 +2873,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2892,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,11 +2906,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2925,7 +2922,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2946,7 +2943,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2958,7 +2955,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2975,7 +2972,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2991,7 +2988,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3008,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3024,7 +3021,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3041,11 +3038,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3057,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,7 +3087,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3107,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3123,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,7 +3153,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3173,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3189,7 +3186,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3222,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>44</v>
@@ -3255,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3302,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3318,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3361,7 +3358,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3368,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,31 +3384,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3441,10 +3438,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3486,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3510,7 +3507,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3536,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,7 +3549,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3569,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>193</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3592,7 +3589,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,7 +3615,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3635,11 +3632,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3651,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,11 +3665,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3684,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3717,7 +3714,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3734,11 +3731,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3750,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3783,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,11 +3797,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3816,14 +3813,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,11 +3830,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3849,7 +3846,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3866,11 +3863,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3882,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,11 +3896,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3915,7 +3912,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3932,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3948,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -3981,7 +3978,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3998,11 +3995,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4014,14 +4011,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,11 +4028,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4047,14 +4044,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4080,14 +4077,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,11 +4094,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4109,13 +4106,13 @@
     </row>
     <row r="89" ht="25.5" customHeight="1">
       <c r="P89" s="13">
-        <v>5104.2650000000003</v>
+        <v>5097.1549999999997</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c t="s" r="A90" s="14">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4123,13 +4120,13 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c t="s" r="G90" s="15">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="16"/>
       <c t="s" r="K90" s="17">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>120.0000</t>
+  </si>
+  <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
   </si>
   <si>
     <t>AVOBEANO CAPS</t>
@@ -1708,13 +1720,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1725,7 +1737,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1741,21 +1753,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1791,7 +1803,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1807,7 +1819,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1850,14 +1862,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,14 +1895,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1899,14 +1911,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2022,7 +2034,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2055,7 +2067,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2085,10 +2097,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,11 +2126,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -2137,21 +2149,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -2163,31 +2175,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2196,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2236,7 +2248,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,11 +2258,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,11 +2291,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2328,31 +2340,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2361,28 +2373,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2411,11 +2423,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2427,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2467,7 +2479,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,11 +2489,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,7 +2538,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2543,11 +2555,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2559,31 +2571,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,31 +2604,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2642,11 +2654,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2658,7 +2670,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2675,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2691,7 +2703,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2741,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2757,7 +2769,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2774,11 +2786,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2790,7 +2802,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2807,11 +2819,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,11 +2885,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2889,20 +2901,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2929,21 +2941,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2988,31 +3000,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,7 +3033,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3034,15 +3046,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3078,7 +3090,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3111,7 +3123,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,11 +3215,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,31 +3429,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,31 +3462,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,28 +3495,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3523,24 +3535,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,7 +3561,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3562,18 +3574,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,7 +3594,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3595,18 +3607,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,7 +3627,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3628,18 +3640,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,20 +3660,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3694,15 +3706,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3714,28 +3726,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3747,28 +3759,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3780,28 +3792,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3813,28 +3825,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3846,28 +3858,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3879,28 +3891,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3912,28 +3924,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3945,31 +3957,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,31 +3990,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,28 +4023,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4057,15 +4069,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4077,66 +4089,99 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5097.1549999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>253</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>254</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>218</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>52</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>255</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5125.7550000000001</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>257</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>258</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>259</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4555,10 +4600,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -125,12 +137,6 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -338,6 +344,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -761,9 +779,6 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -782,7 +797,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:42 PM</t>
+    <t>Saturday, 27 September, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1605,7 +1620,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1621,7 +1636,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1647,14 +1662,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1664,14 +1679,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1680,14 +1695,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1697,11 +1712,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1746,31 +1761,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1779,28 +1794,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,11 +1877,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1878,14 +1893,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1984,7 +1999,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2031,10 +2046,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,14 +2075,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,14 +2108,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,11 +2174,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -2175,28 +2190,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -2208,31 +2223,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2248,7 +2263,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,11 +2306,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,11 +2339,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,20 +2388,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2430,7 +2445,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2452,7 +2467,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2479,7 +2494,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,11 +2504,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2505,7 +2520,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2522,11 +2537,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2562,7 +2577,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2578,7 +2593,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2595,7 +2610,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2611,13 +2626,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2628,7 +2643,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2644,7 +2659,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2677,13 +2692,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2694,7 +2709,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2710,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2727,7 +2742,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2776,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2793,7 +2808,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2809,7 +2824,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,11 +2867,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2941,21 +2956,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,7 +2999,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3007,21 +3022,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3033,31 +3048,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3106,24 +3121,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,7 +3147,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>122</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3205,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,11 +3329,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>44</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,28 +3477,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3495,31 +3510,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,31 +3543,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3568,24 +3583,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,31 +3609,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,7 +3642,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3640,18 +3655,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>200</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,7 +3675,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3673,18 +3688,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3700,24 +3715,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,28 +3741,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3766,21 +3781,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3792,28 +3807,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3825,28 +3840,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3858,28 +3873,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3891,28 +3906,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3924,28 +3939,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3957,7 +3972,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3970,15 +3985,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3990,31 +4005,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,7 +4038,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4036,15 +4051,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4056,31 +4071,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4096,21 +4111,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4129,17 +4144,17 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4150,38 +4165,104 @@
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5125.7550000000001</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>257</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>258</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>54</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>43</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>259</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>224</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>54</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>260</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5160.2849999999999</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>262</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>263</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>264</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4605,10 +4686,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -395,195 +395,198 @@
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>220.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>264.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
+    <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>NEW-CLAV 457MG/5ML SUSP. 80ML</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OMEGA RX JELLY CANDY 60 PCS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>21.1500</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>264.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>91.5750</t>
-  </si>
-  <si>
-    <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>NEW-CLAV 457MG/5ML SUSP. 80ML</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>OCTATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OMEGA RX JELLY CANDY 60 PCS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>21.1500</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>82.5000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -671,6 +674,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -797,7 +812,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:43 PM</t>
+    <t>Saturday, 27 September, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2577,7 +2592,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3253,7 +3268,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,7 +3294,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3312,7 +3327,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>46</v>
@@ -3378,7 +3393,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3399,7 +3414,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3411,7 +3426,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3432,7 +3447,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,7 +3509,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3510,7 +3525,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3531,7 +3546,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>46</v>
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3564,7 +3579,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,11 +3641,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,7 +3690,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>224</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,7 +3723,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3725,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,7 +3756,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3806,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3839,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,11 +3872,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3971,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,11 +4037,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4059,7 +4074,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4169,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4202,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4203,14 +4218,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,49 +4235,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5160.2849999999999</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>262</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>263</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>264</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>229</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>54</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>265</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5337.2849999999999</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>267</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>268</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>269</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4696,10 +4744,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -515,6 +515,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -713,9 +722,6 @@
     <t>سيتي بيبي رقم 2</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>180.0000</t>
   </si>
   <si>
@@ -812,7 +818,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:47 PM</t>
+    <t>Saturday, 27 September, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3037,21 +3043,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3063,28 +3069,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3129,31 +3135,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3175,7 +3181,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3202,7 +3208,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>189</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3268,7 +3274,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>191</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,14 +3383,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3400,7 +3406,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3492,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3532,7 +3538,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,31 +3564,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3612,10 +3618,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,11 +3647,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3657,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3690,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3714,7 +3720,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3740,14 +3746,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>229</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,7 +3762,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3773,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>232</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>207</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3813,7 +3819,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3829,7 +3835,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,11 +3845,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,11 +3878,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3895,7 +3901,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,11 +3911,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3928,7 +3934,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3961,7 +3967,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3971,11 +3977,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4027,7 +4033,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4037,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4053,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4070,11 +4076,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4107,7 +4113,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4136,14 +4142,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,14 +4158,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4169,14 +4175,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4192,7 +4198,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4202,11 +4208,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4235,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4258,7 +4264,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4268,49 +4274,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5337.2849999999999</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>232</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>54</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>267</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>268</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5396.6850000000004</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>269</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>270</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>271</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4749,10 +4788,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>67.3200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -278,12 +290,18 @@
     <t>4.2000</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -377,9 +395,6 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>28.7100</t>
   </si>
   <si>
@@ -623,12 +638,18 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -686,9 +707,6 @@
     <t>حلق</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -818,7 +836,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 8:52 PM</t>
+    <t>Saturday, 27 September, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,7 +1576,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1568,14 +1586,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1591,7 +1609,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1634,14 +1652,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1674,7 +1692,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1690,7 +1708,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1733,14 +1751,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1806,7 +1824,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1822,13 +1840,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1839,7 +1857,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1855,21 +1873,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1905,7 +1923,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1921,7 +1939,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1931,14 +1949,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1947,14 +1965,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1964,14 +1982,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1997,14 +2015,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2013,14 +2031,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2030,14 +2048,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2046,14 +2064,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2063,14 +2081,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2136,7 +2154,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2169,7 +2187,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2199,10 +2217,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2235,7 +2253,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2251,13 +2269,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2265,10 +2283,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2298,10 +2316,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2310,20 +2328,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2334,7 +2352,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2350,7 +2368,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2364,10 +2382,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2376,14 +2394,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2400,7 +2418,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2416,7 +2434,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,14 +2444,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2475,20 +2493,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2499,7 +2517,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,7 +2550,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,13 +2566,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2565,7 +2583,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2581,7 +2599,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2624,14 +2642,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2640,14 +2658,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,14 +2675,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2706,31 +2724,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,11 +2774,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2772,31 +2790,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2805,14 +2823,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,14 +2840,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,7 +2856,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2855,11 +2873,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2904,14 +2922,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,11 +2939,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2937,7 +2955,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2954,11 +2972,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3071,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,31 +3087,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,20 +3153,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3156,10 +3174,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3168,31 +3186,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3208,7 +3226,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3222,10 +3240,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3234,31 +3252,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,7 +3285,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3284,14 +3302,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3300,14 +3318,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,11 +3335,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>194</v>
@@ -3333,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3373,7 +3391,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3401,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3434,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3467,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3472,7 +3490,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>210</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,31 +3615,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3643,18 +3661,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,31 +3681,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,31 +3714,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,31 +3747,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,31 +3780,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,31 +3813,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3828,7 +3846,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3841,18 +3859,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3861,31 +3879,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3894,31 +3912,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,28 +3945,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3960,28 +3978,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4000,21 +4018,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4026,28 +4044,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4059,28 +4077,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4099,21 +4117,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4125,28 +4143,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4158,31 +4176,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,28 +4209,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4231,21 +4249,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4257,31 +4275,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4290,66 +4308,165 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5396.6850000000004</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>268</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>58</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>119</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>269</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>270</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>271</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>58</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>47</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>272</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>238</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>58</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>273</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5569.1049999999996</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>275</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>276</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>277</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4793,10 +4910,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 9:06 PM</t>
+    <t>Saturday, 27 September, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -260,10 +260,16 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
@@ -446,6 +452,15 @@
     <t>264.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
   </si>
   <si>
@@ -593,9 +608,6 @@
     <t>21.1500</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -608,9 +620,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -707,12 +716,12 @@
     <t>حلق</t>
   </si>
   <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -734,7 +743,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 2</t>
@@ -779,9 +788,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -818,9 +824,6 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -836,7 +839,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 9:17 PM</t>
+    <t>Saturday, 27 September, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2137,7 +2140,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2147,14 +2150,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2180,11 +2183,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2229,7 +2232,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2246,11 +2249,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>27</v>
@@ -2262,7 +2265,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2312,11 +2315,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>27</v>
@@ -2328,7 +2331,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2345,11 +2348,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2378,7 +2381,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2444,11 +2447,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2477,11 +2480,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2510,11 +2513,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2526,7 +2529,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2543,11 +2546,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2559,7 +2562,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2576,11 +2579,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2592,7 +2595,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2613,7 +2616,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2642,11 +2645,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2675,11 +2678,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>42</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2708,11 +2711,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2724,7 +2727,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2774,11 +2777,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2790,31 +2793,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2823,31 +2826,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2906,14 +2909,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2922,7 +2925,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2939,14 +2942,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,11 +2975,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3005,11 +3008,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3021,7 +3024,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3038,11 +3041,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3120,14 +3123,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3153,28 +3156,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -3186,28 +3189,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3252,31 +3255,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3298,15 +3301,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,14 +3338,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3358,7 +3361,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3408,7 +3411,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>199</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3424,7 +3427,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,11 +3470,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3523,7 +3526,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3569,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3589,7 +3592,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3602,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3635,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>217</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3688,7 +3691,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,31 +3717,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3768,10 +3771,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,11 +3800,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3853,7 +3856,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,11 +3866,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>33</v>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>238</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,7 +3915,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>241</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>217</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4150,7 +4153,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4183,7 +4186,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,11 +4196,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,11 +4229,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,11 +4262,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4348,7 +4351,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4361,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,49 +4427,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5569.1049999999996</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>241</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>58</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>274</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>275</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5632.8649999999998</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
         <v>276</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
         <v>277</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>278</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4925,10 +4961,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 9:19 PM</t>
+    <t>Saturday, 27 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>220.4400</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -479,6 +488,15 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>MONDO CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -779,7 +797,10 @@
     <t>فرش اسنان HASI</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
   </si>
   <si>
     <t>فرشاة اطفال ريتش ديلي</t>
@@ -839,7 +860,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 9:20 PM</t>
+    <t>Saturday, 27 September, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2701,7 +2722,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2734,7 +2755,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2751,7 +2772,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2800,7 +2821,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2831,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2833,24 +2854,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2866,13 +2887,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2883,7 +2904,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2899,7 +2920,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2932,7 +2953,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2949,7 +2970,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2998,7 +3019,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3015,7 +3036,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3031,7 +3052,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3074,11 +3095,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3161,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3163,7 +3184,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3196,21 +3217,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,7 +3260,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3262,21 +3283,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3288,31 +3309,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3361,24 +3382,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3387,7 +3408,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3404,14 +3425,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3420,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3444,7 +3465,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3460,7 +3481,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,11 +3491,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3519,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3536,14 +3557,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3552,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,11 +3590,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3585,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3606,10 +3627,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3618,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3635,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3668,14 +3689,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3691,7 +3712,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>50</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3750,28 +3771,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>33</v>
@@ -3783,31 +3804,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,14 +3854,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3866,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3906,7 +3927,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3922,7 +3943,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3953,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>241</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,7 +3969,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3965,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3981,7 +4002,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3998,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4038,7 +4059,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4054,7 +4075,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,11 +4085,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4087,7 +4108,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,11 +4118,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4113,14 +4134,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,11 +4151,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4146,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,11 +4184,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4179,14 +4200,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4196,14 +4217,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,11 +4250,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4245,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,11 +4283,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4278,7 +4299,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4295,11 +4316,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4311,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,14 +4349,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,7 +4365,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4361,11 +4382,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4377,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4394,14 +4415,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4427,11 +4448,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4443,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4460,49 +4481,115 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5632.8649999999998</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>276</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>277</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>278</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>279</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>58</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>47</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>247</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>58</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>281</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5764.6450000000004</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>283</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>284</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>285</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4966,10 +5053,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -242,12 +242,27 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
   </si>
   <si>
     <t>375.0000</t>
   </si>
   <si>
+    <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -686,9 +701,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>3:0</t>
   </si>
   <si>
@@ -701,6 +713,24 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>XYRKUX 90 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>ZYMAGALLIN 30 TAB</t>
   </si>
   <si>
@@ -860,7 +890,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 9:37 PM</t>
+    <t>Saturday, 27 September, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2095,7 +2125,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2105,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2138,14 +2168,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2161,7 +2191,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,11 +2234,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2220,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2303,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2326,7 +2356,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2336,11 +2366,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>27</v>
@@ -2352,7 +2382,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2365,15 +2395,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -2385,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2425,21 +2455,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -2451,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2468,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2501,11 +2531,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2517,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2534,11 +2564,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2550,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2583,28 +2613,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2616,7 +2646,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2633,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2662,7 +2692,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2689,7 +2719,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2715,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2732,11 +2762,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2748,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2765,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2781,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2798,14 +2828,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2814,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2831,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2847,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2864,14 +2894,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2880,31 +2910,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2913,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2930,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2946,31 +2976,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2979,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2996,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3012,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3029,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,7 +3075,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3062,11 +3092,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3078,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3111,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3128,11 +3158,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3144,7 +3174,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3161,11 +3191,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3177,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3194,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3210,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3243,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,11 +3290,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3276,28 +3306,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3309,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,11 +3356,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3342,20 +3372,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3363,7 +3393,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3375,31 +3405,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3415,7 +3445,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3429,10 +3459,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3441,31 +3471,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3474,7 +3504,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3491,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3507,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3540,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3573,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,11 +3686,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3679,7 +3709,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3712,7 +3742,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,28 +3867,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>33</v>
@@ -3877,24 +3907,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3927,7 +3957,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3943,24 +3973,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3969,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>33</v>
@@ -4002,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4068,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4108,7 +4138,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4207,7 +4237,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4247,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4254,7 +4284,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4266,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,11 +4313,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4299,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4332,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4349,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,7 +4412,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4398,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,7 +4461,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4452,7 +4482,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4464,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4511,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4497,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,11 +4544,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4530,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,49 +4577,181 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>284</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>58</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>285</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5764.6450000000004</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>283</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>284</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>285</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>286</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>287</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>58</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>126</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>288</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>289</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>58</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>47</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>290</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>257</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>58</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>291</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6039.1549999999997</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>293</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>294</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>295</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5063,10 +5225,30 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADVANCEVELA MAX MASSAGE 50GM CREAM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -194,6 +203,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>BIOVITA 60 GUMMIES</t>
   </si>
   <si>
@@ -476,6 +494,15 @@
     <t>264.0000</t>
   </si>
   <si>
+    <t>JOINTGAURD 30 CAPS</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>65.6700</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -605,6 +632,21 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PEA 600 MG 20TAB</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -728,7 +770,7 @@
     <t>297.00</t>
   </si>
   <si>
-    <t>98.0100</t>
+    <t>196.0200</t>
   </si>
   <si>
     <t>ZYMAGALLIN 30 TAB</t>
@@ -782,115 +824,118 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 2</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
+    <t>لونا انبوبه كبير</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 2</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>فرش اسنان HASI</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم كير اند مور75مل</t>
-  </si>
-  <si>
-    <t>لونا انبوبه كبير</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 27 September, 2025 9:51 PM</t>
+    <t>Saturday, 27 September, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1564,7 +1609,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1574,11 +1619,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1590,14 +1635,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1607,14 +1652,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1623,14 +1668,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1640,14 +1685,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1656,14 +1701,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1680,7 +1725,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1689,14 +1734,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1706,14 +1751,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1739,14 +1784,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1772,14 +1817,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1788,14 +1833,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1805,14 +1850,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1821,14 +1866,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1838,14 +1883,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1861,7 +1906,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1871,11 +1916,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1887,14 +1932,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1904,14 +1949,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1920,31 +1965,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1953,20 +1998,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2003,14 +2048,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2019,7 +2064,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2036,14 +2081,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2052,14 +2097,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2076,7 +2121,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2092,7 +2137,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2109,7 +2154,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2125,7 +2170,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2158,7 +2203,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2168,14 +2213,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2184,14 +2229,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2201,11 +2246,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2217,14 +2262,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2234,14 +2279,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2250,14 +2295,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2312,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,14 +2328,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,11 +2345,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2316,14 +2361,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,14 +2378,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2349,14 +2394,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2411,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,14 +2427,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2403,10 +2448,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2415,14 +2460,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2439,7 +2484,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2455,13 +2500,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2469,10 +2514,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,14 +2526,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2502,10 +2547,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,20 +2559,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2538,7 +2583,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2554,7 +2599,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2568,10 +2613,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,14 +2625,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2604,7 +2649,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2620,7 +2665,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2675,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2691,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,14 +2708,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,20 +2724,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2703,7 +2748,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2729,14 +2774,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,31 +2790,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,14 +2823,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2840,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2856,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2873,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,7 +2913,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2884,7 +2929,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2901,7 +2946,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,7 +2962,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2934,7 +2979,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2950,7 +2995,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,14 +3005,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2983,13 +3028,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3000,7 +3045,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3016,7 +3061,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3033,7 +3078,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3049,7 +3094,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,14 +3104,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3082,13 +3127,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3099,7 +3144,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3115,7 +3160,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3132,7 +3177,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3148,7 +3193,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3181,7 +3226,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3214,7 +3259,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3231,7 +3276,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3247,7 +3292,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,11 +3302,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3273,14 +3318,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3335,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,14 +3351,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3368,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3401,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3379,24 +3424,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3450,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3467,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3445,7 +3490,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3459,10 +3504,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,31 +3516,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3566,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3561,7 +3606,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3577,24 +3622,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3648,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,31 +3681,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3676,7 +3721,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3764,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,14 +3813,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,14 +3830,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3801,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3863,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3879,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3888,10 +3933,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3945,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3962,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3940,24 +3985,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3973,7 +4018,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4028,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,31 +4044,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,31 +4077,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,31 +4110,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,20 +4143,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4119,10 +4164,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,31 +4176,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4171,24 +4216,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>257</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4204,24 +4249,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,28 +4275,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4263,31 +4308,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4303,24 +4348,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,31 +4374,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,31 +4407,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,28 +4440,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4428,28 +4473,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4461,28 +4506,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4494,28 +4539,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4527,31 +4572,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,31 +4605,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,28 +4638,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4626,28 +4671,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4659,28 +4704,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4692,66 +4737,231 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6039.1549999999997</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>293</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>294</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>295</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>296</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>297</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>61</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>290</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>299</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>61</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>300</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>301</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>302</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>61</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>132</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>303</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>304</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>61</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>50</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>305</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>306</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>61</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>307</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6429.4350000000004</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>308</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>309</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>310</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5245,10 +5455,35 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:00 PM</t>
+    <t>Saturday, 27 September, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -593,9 +602,6 @@
     <t>265.00</t>
   </si>
   <si>
-    <t>53.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -638,304 +644,307 @@
     <t>90.00</t>
   </si>
   <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>PEA 600 MG 20TAB</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>21.1500</t>
+  </si>
+  <si>
+    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>226.5900</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>TOTACAL 30 TABS</t>
+  </si>
+  <si>
+    <t>TRITONE 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>-40.5900</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8209:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>XYRKUX 90 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>196.0200</t>
+  </si>
+  <si>
+    <t>ZYMAGALLIN 30 TAB</t>
+  </si>
+  <si>
+    <t>-15.8400</t>
+  </si>
+  <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 2</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم كير اند مور75مل</t>
+  </si>
+  <si>
+    <t>لونا انبوبه كبير</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>PEA 600 MG 20TAB</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>21.1500</t>
-  </si>
-  <si>
-    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>82.5000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>226.5900</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>TOTACAL 30 TABS</t>
-  </si>
-  <si>
-    <t>TRITONE 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>-40.5900</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8209:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>XYRKUX 90 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>196.0200</t>
-  </si>
-  <si>
-    <t>ZYMAGALLIN 30 TAB</t>
-  </si>
-  <si>
-    <t>-15.8400</t>
-  </si>
-  <si>
-    <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 2</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>فرش اسنان HASI</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم كير اند مور75مل</t>
-  </si>
-  <si>
-    <t>لونا انبوبه كبير</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>Saturday, 27 September, 2025 10:01 PM</t>
+    <t>Saturday, 27 September, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2514,7 +2523,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2547,7 +2556,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2559,20 +2568,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2599,13 +2608,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2613,10 +2622,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2646,10 +2655,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2698,7 +2707,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2731,7 +2740,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2741,11 +2750,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2781,7 +2790,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2797,13 +2806,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2814,7 +2823,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2830,21 +2839,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2873,7 +2882,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2896,7 +2905,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2946,7 +2955,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2995,7 +3004,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3012,7 +3021,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3061,7 +3070,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3078,7 +3087,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3094,7 +3103,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3127,24 +3136,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3160,13 +3169,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3177,7 +3186,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3226,7 +3235,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3276,7 +3285,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3309,7 +3318,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3325,7 +3334,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3457,7 +3466,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3471,7 +3480,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3516,28 +3525,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3549,24 +3558,24 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3589,7 +3598,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3615,7 +3624,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3628,18 +3637,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3661,15 +3670,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3688,13 +3697,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3702,10 +3711,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,7 +3723,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3727,15 +3736,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3985,7 +3994,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>244</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>36</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4131,10 +4140,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,31 +4152,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,31 +4185,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4216,24 +4225,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4249,7 +4258,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4263,10 +4272,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4362,7 +4371,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>36</v>
@@ -4374,7 +4383,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4391,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>272</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,7 +4416,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>99</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,7 +4449,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4480,7 +4489,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,11 +4499,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4523,11 +4532,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4546,7 +4555,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,11 +4565,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4579,7 +4588,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4645,7 +4654,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4678,7 +4687,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,11 +4697,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4721,11 +4730,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4754,11 +4763,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4843,7 +4852,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4853,11 +4862,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4886,11 +4895,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4919,49 +4928,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6429.4350000000004</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>307</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
         <v>308</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>61</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>309</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>310</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6527.4350000000004</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>311</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>312</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>313</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5480,10 +5522,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:02 PM</t>
+    <t>Saturday, 27 September, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BIOVITA 60 GUMMIES</t>
   </si>
   <si>
@@ -485,6 +494,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -878,12 +896,6 @@
     <t>فرش اسنان HASI</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -926,6 +938,9 @@
     <t>36:0</t>
   </si>
   <si>
+    <t>معجون سنسوداين مفعول سريع 75 مل</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -944,7 +959,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:12 PM</t>
+    <t>Saturday, 27 September, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2080,7 +2095,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2097,7 +2112,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2113,7 +2128,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2123,14 +2138,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2179,7 +2194,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2196,7 +2211,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2212,7 +2227,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2229,7 +2244,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2245,7 +2260,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2262,7 +2277,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2278,7 +2293,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2354,11 +2369,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2391,10 +2406,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2493,7 +2508,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2509,7 +2524,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2556,7 +2571,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2589,7 +2604,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2601,20 +2616,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2641,13 +2656,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2655,10 +2670,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2688,10 +2703,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2740,7 +2755,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2773,7 +2788,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,11 +2798,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2823,7 +2838,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2839,13 +2854,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2856,7 +2871,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2872,21 +2887,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,7 +2930,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2938,7 +2953,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2988,7 +3003,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3004,7 +3019,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3037,7 +3052,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3054,7 +3069,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3103,7 +3118,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3120,7 +3135,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3136,7 +3151,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3169,13 +3184,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3202,7 +3217,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3235,13 +3250,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3252,7 +3267,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3268,7 +3283,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3301,7 +3316,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3318,7 +3333,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3367,7 +3382,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3384,7 +3399,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3400,7 +3415,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3443,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3476,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3565,21 +3580,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3608,7 +3623,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3631,24 +3646,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3657,28 +3672,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3690,7 +3705,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3788,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3796,24 +3811,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3822,7 +3837,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3879,7 +3894,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3895,7 +3910,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,11 +3920,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3921,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,11 +4019,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4041,10 +4056,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4173,10 +4188,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>252</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4192,24 +4207,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4225,7 +4240,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,31 +4299,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4317,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4367,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4407,7 +4422,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4423,7 +4438,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>274</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,7 +4488,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4499,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4539,7 +4554,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4555,7 +4570,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,11 +4580,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4588,7 +4603,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,11 +4613,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4614,14 +4629,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,14 +4646,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,11 +4679,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4680,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4720,7 +4735,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,11 +4745,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4746,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4763,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4779,7 +4794,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4796,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4812,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4829,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4862,11 +4877,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4878,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4918,7 +4933,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4961,49 +4976,148 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6527.4350000000004</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>309</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>61</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>54</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>311</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>61</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>50</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>312</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
         <v>313</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>61</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>314</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6759.0649999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>316</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>317</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>318</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5527,10 +5641,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:14 PM</t>
+    <t>Saturday, 27 September, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -431,6 +431,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -767,9 +779,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -923,9 +932,6 @@
     <t>28:0</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -959,7 +965,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:15 PM</t>
+    <t>Saturday, 27 September, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2854,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,11 +2870,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2880,31 +2886,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,28 +2919,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,11 +2969,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3003,7 +3009,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3019,7 +3025,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3029,14 +3035,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,11 +3068,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3111,7 +3117,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3128,11 +3134,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3144,7 +3150,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3161,11 +3167,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,31 +3249,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,31 +3282,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3309,7 +3315,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3326,11 +3332,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,11 +3365,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3408,7 +3414,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,11 +3464,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3474,7 +3480,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3507,7 +3513,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,11 +3596,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,11 +3629,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3639,20 +3645,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3679,21 +3685,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3738,7 +3744,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3751,18 +3757,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,7 +3777,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3784,15 +3790,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3804,31 +3810,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,7 +3843,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3850,15 +3856,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3894,7 +3900,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3910,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>252</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,10 +4227,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4240,7 +4246,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4273,13 +4279,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4290,7 +4296,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4306,24 +4312,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,31 +4338,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4386,10 +4392,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4471,7 +4477,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>36</v>
@@ -4514,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>280</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>283</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>102</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,11 +4619,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4629,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,11 +4685,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,11 +4784,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4817,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4933,7 +4939,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4966,7 +4972,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4999,7 +5005,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5075,49 +5081,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>50</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6759.0649999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>314</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>315</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>61</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>316</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>317</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6789.0649999999996</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>318</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>319</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>320</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5656,10 +5695,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -506,6 +515,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>GROWTH FORMULA WG 400 GRAM PD.</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>245.0000</t>
+  </si>
+  <si>
     <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
   </si>
   <si>
@@ -719,6 +737,15 @@
     <t>21.1500</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
   </si>
   <si>
@@ -743,6 +770,9 @@
     <t>TOTACAL 30 TABS</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
     <t>TRITONE 200MG 30 TAB</t>
   </si>
   <si>
@@ -965,7 +995,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:21 PM</t>
+    <t>Saturday, 27 September, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,7 +1702,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1682,11 +1712,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1698,14 +1728,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1715,14 +1745,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1731,14 +1761,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1748,14 +1778,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1764,14 +1794,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1788,7 +1818,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1814,14 +1844,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1863,14 +1893,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1880,14 +1910,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1969,7 +1999,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1979,11 +2009,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2028,31 +2058,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2061,31 +2091,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2101,7 +2131,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2111,14 +2141,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2134,7 +2164,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2151,7 +2181,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2167,7 +2197,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2177,14 +2207,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2217,7 +2247,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2233,7 +2263,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2250,7 +2280,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2266,7 +2296,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2283,7 +2313,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2299,7 +2329,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2316,7 +2346,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2332,7 +2362,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2342,14 +2372,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2358,14 +2388,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2375,14 +2405,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2391,14 +2421,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2408,11 +2438,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2445,10 +2475,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2474,14 +2504,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2547,7 +2577,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2563,7 +2593,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2580,7 +2610,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2596,7 +2626,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2610,10 +2640,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2622,14 +2652,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2643,10 +2673,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2655,20 +2685,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2679,7 +2709,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2695,13 +2725,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2709,10 +2739,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2721,14 +2751,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2742,10 +2772,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2754,14 +2784,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2778,7 +2808,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2794,7 +2824,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2811,7 +2841,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2827,7 +2857,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2837,14 +2867,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2853,14 +2883,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2870,14 +2900,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2886,14 +2916,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2926,13 +2956,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2943,7 +2973,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2959,24 +2989,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2985,14 +3015,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3002,14 +3032,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3025,7 +3055,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3035,14 +3065,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3051,14 +3081,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3075,7 +3105,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3091,7 +3121,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3108,7 +3138,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3124,7 +3154,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3141,7 +3171,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3157,7 +3187,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3190,7 +3220,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3223,7 +3253,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3240,7 +3270,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3256,7 +3286,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3296,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3289,13 +3319,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3306,7 +3336,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3322,7 +3352,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3362,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3355,13 +3385,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3372,7 +3402,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3388,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3421,7 +3451,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3438,7 +3468,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3487,7 +3517,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3504,7 +3534,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3520,7 +3550,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3563,11 +3593,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3579,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3659,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3685,24 +3715,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3751,24 +3781,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,31 +3807,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,31 +3873,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3923,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3916,24 +3946,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,7 +3972,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3959,14 +3989,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3999,7 +4029,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4025,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4227,10 +4257,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4286,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4279,7 +4309,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4312,21 +4342,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4338,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4385,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>53</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,31 +4401,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4411,24 +4441,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,20 +4467,20 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4461,7 +4491,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4477,24 +4507,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,31 +4533,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,31 +4566,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,31 +4599,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,31 +4632,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,31 +4665,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,31 +4698,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,31 +4731,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4741,24 +4771,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,28 +4797,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4800,28 +4830,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4833,28 +4863,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4866,31 +4896,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,24 +4929,24 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4932,31 +4962,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,7 +4995,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4978,15 +5008,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,28 +5028,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5031,7 +5061,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5044,15 +5074,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5064,31 +5094,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,66 +5127,198 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6789.0649999999996</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>318</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>319</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>320</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>64</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>141</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>321</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>12</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>64</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>57</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>322</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>323</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>64</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>53</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>324</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>325</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>64</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>326</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7233.0649999999996</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>328</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>329</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>330</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5700,10 +5862,30 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -371,15 +371,21 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>7.6800</t>
   </si>
   <si>
@@ -809,6 +815,9 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -887,10 +896,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -911,9 +917,6 @@
     <t>شاش 5سم</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -995,7 +998,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:22 PM</t>
+    <t>Saturday, 27 September, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2692,7 +2695,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,28 +2721,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>33</v>
@@ -2751,31 +2754,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2791,7 +2794,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2834,11 +2837,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>33</v>
@@ -2850,14 +2853,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,11 +2870,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>33</v>
@@ -2883,14 +2886,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2900,11 +2903,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2916,14 +2919,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,14 +2936,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2949,14 +2952,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,11 +2969,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2982,31 +2985,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3015,24 +3018,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3055,7 +3058,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3065,11 +3068,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>33</v>
@@ -3081,14 +3084,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3114,14 +3117,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,14 +3134,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,11 +3167,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -3180,14 +3183,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,14 +3200,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,14 +3216,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3230,11 +3233,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3246,7 +3249,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3263,11 +3266,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3296,11 +3299,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3312,14 +3315,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3378,31 +3381,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3411,31 +3414,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3444,7 +3447,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,11 +3497,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3510,7 +3513,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3543,7 +3546,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3609,7 +3612,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3642,7 +3645,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3659,11 +3662,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3675,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3715,7 +3718,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3729,7 +3732,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>33</v>
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,11 +3761,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>33</v>
@@ -3774,28 +3777,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>33</v>
@@ -3807,24 +3810,24 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3847,7 +3850,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,7 +3876,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3886,18 +3889,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3919,15 +3922,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>33</v>
@@ -3946,13 +3949,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3960,10 +3963,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3972,7 +3975,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3985,15 +3988,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4190,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4256,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4309,7 +4312,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4368,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>39</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>33</v>
@@ -4467,31 +4470,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,31 +4569,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4602,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4718,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>293</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,7 +4734,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4748,14 +4751,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,7 +4767,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,11 +4850,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4863,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,11 +4883,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4896,14 +4899,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,14 +4932,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,11 +4949,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,11 +5015,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5028,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,11 +5048,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5061,7 +5064,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5078,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5094,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,14 +5114,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,7 +5130,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5144,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5160,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,14 +5180,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5193,7 +5196,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5210,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5226,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5259,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,49 +5279,115 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>324</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>64</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>53</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>325</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>326</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>64</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>327</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7233.0649999999996</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>328</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7347.8950000000004</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>329</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
         <v>330</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>331</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5882,10 +5951,20 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -723,12 +735,6 @@
   </si>
   <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -2332,7 +2338,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2342,14 +2348,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2358,14 +2364,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2375,14 +2381,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2391,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2408,14 +2414,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2424,14 +2430,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2441,14 +2447,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2457,14 +2463,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2474,11 +2480,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2490,14 +2496,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2507,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2523,14 +2529,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,7 +2586,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2596,7 +2602,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2622,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2639,11 +2645,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2655,7 +2661,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2672,11 +2678,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>33</v>
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2705,14 +2711,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2738,14 +2744,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,28 +2760,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>33</v>
@@ -2787,31 +2793,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2860,7 +2866,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2870,11 +2876,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>33</v>
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2976,7 +2982,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2992,7 +2998,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,11 +3008,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3018,31 +3024,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,28 +3057,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>33</v>
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,11 +3107,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>33</v>
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3141,7 +3147,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3157,7 +3163,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3200,11 +3206,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -3216,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,14 +3239,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,11 +3272,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3282,7 +3288,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3299,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3315,7 +3321,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3332,11 +3338,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3414,31 +3420,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,31 +3453,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,7 +3486,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3497,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3513,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3563,14 +3569,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,7 +3585,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3596,14 +3602,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3645,7 +3651,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3662,11 +3668,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3678,7 +3684,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3695,11 +3701,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,11 +3767,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>33</v>
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3794,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>33</v>
@@ -3810,20 +3816,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3850,21 +3856,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>33</v>
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,7 +3915,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3922,18 +3928,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,7 +3948,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3955,15 +3961,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>33</v>
@@ -3975,31 +3981,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4008,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4021,15 +4027,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4196,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>33</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4345,7 +4351,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4404,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>105</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>146</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4493,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>143</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4524,10 +4530,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,31 +4542,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,31 +4575,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4609,24 +4615,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4642,7 +4648,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4685,11 +4691,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4755,7 +4761,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>39</v>
@@ -4767,7 +4773,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>295</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4817,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>105</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,7 +4839,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4850,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4873,7 +4879,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,11 +4889,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,11 +4922,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4939,7 +4945,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,11 +4955,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4972,7 +4978,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5015,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5038,7 +5044,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,11 +5054,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5071,7 +5077,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5097,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5130,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5163,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5180,14 +5186,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5203,7 +5209,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5236,7 +5242,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5269,7 +5275,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5295,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,11 +5318,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5345,49 +5351,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>327</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
         <v>328</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7347.8950000000004</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>64</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>329</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>330</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7380.8950000000004</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>331</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>332</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>333</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5961,10 +6000,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:26 PM</t>
+    <t>Saturday, 27 September, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -239,15 +239,21 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -1004,7 +1010,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 10:45 PM</t>
+    <t>Saturday, 27 September, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2239,7 +2245,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2282,11 +2288,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>33</v>
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2315,14 +2321,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2381,14 +2387,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2430,14 +2436,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2470,7 +2476,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2480,14 +2486,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2503,7 +2509,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2513,11 +2519,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2678,11 +2684,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>33</v>
@@ -2694,7 +2700,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2711,11 +2717,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>33</v>
@@ -2734,7 +2740,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2748,10 +2754,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2793,28 +2799,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>33</v>
@@ -2826,31 +2832,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2866,7 +2872,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>33</v>
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,11 +3047,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3057,31 +3063,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,24 +3096,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3130,7 +3136,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3321,7 +3327,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3338,11 +3344,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3371,11 +3377,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,31 +3459,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,31 +3492,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,7 +3525,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3536,11 +3542,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,11 +3575,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3585,7 +3591,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,7 +3624,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3668,11 +3674,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3684,7 +3690,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3701,11 +3707,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3717,7 +3723,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3734,11 +3740,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3790,7 +3796,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3804,7 +3810,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>33</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>33</v>
@@ -3849,28 +3855,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>33</v>
@@ -3882,24 +3888,24 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3922,7 +3928,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,7 +3954,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3961,18 +3967,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3994,15 +4000,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>33</v>
@@ -4021,13 +4027,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4035,10 +4041,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4047,7 +4053,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4060,15 +4066,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,11 +4268,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>33</v>
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4384,7 +4390,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>150</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4563,10 +4569,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,31 +4581,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,31 +4614,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4648,24 +4654,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4681,7 +4687,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4724,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4794,7 +4800,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>39</v>
@@ -4806,7 +4812,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>297</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>109</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,7 +4878,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4912,7 +4918,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,11 +4928,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,11 +4961,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4978,7 +4984,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5011,7 +5017,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5077,7 +5083,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5110,7 +5116,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5136,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5225,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5242,7 +5248,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5258,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>295</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5275,7 +5281,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>147</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5308,7 +5314,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,11 +5324,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5334,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,11 +5357,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5384,49 +5390,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>53</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>330</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7380.8950000000004</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>64</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>331</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>332</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7396.7349999999997</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>333</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>334</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>335</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6005,10 +6044,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -1010,7 +1010,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:02 PM</t>
+    <t>Saturday, 27 September, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -248,6 +248,60 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CO- AVAZIR EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>CO- AVAZIR OPHTH SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -314,9 +368,6 @@
     <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -329,9 +380,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -470,12 +518,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -506,9 +548,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -539,6 +578,39 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>16.25</t>
+  </si>
+  <si>
+    <t>16.2500</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>GOLINOTECH 0.5MG 2 TAB</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>GROWTH FORMULA WG 400 GRAM PD.</t>
   </si>
   <si>
@@ -584,6 +656,9 @@
     <t>65.6700</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -695,141 +770,141 @@
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>PEA 600 MG 20TAB</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>21.1500</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>226.5900</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>TOTACAL 30 TABS</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TRITONE 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>-40.5900</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>PEA 600 MG 20TAB</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>21.1500</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>STREPSILS HONEY &amp; LEMON 24 LOZENGES</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>82.5000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>226.5900</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>TOTACAL 30 TABS</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>TRITONE 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>-40.5900</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -908,27 +983,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 2</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 2</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -944,9 +1025,6 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -1004,13 +1082,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 27 September, 2025 11:03 PM</t>
+    <t>Saturday, 27 September, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2278,7 +2350,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2288,14 +2360,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2311,7 +2383,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2328,7 +2400,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2344,7 +2416,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2354,11 +2426,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2370,14 +2442,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2410,7 +2482,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2420,14 +2492,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2436,14 +2508,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2453,11 +2525,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2469,14 +2541,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2486,14 +2558,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2509,7 +2581,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2519,14 +2591,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2535,14 +2607,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2556,7 +2628,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2568,14 +2640,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,14 +2657,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2608,7 +2680,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,14 +2690,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2634,14 +2706,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2723,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2739,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,14 +2756,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2700,14 +2772,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2717,14 +2789,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2733,14 +2805,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,14 +2822,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2766,14 +2838,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2783,14 +2855,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2799,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2816,14 +2888,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2832,31 +2904,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2865,14 +2937,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2882,14 +2954,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2905,7 +2977,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2915,11 +2987,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2931,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2948,11 +3020,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -2964,14 +3036,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2981,14 +3053,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2997,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3014,11 +3086,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>33</v>
@@ -3030,31 +3102,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3063,14 +3135,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3080,14 +3152,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3096,28 +3168,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>33</v>
@@ -3129,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,11 +3218,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -3162,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3179,11 +3251,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -3195,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3212,14 +3284,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3228,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,14 +3317,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3261,14 +3333,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,14 +3350,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,31 +3366,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3327,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3416,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3360,14 +3432,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3393,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,14 +3482,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3426,14 +3498,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,11 +3515,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>33</v>
@@ -3459,14 +3531,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,31 +3564,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,7 +3597,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3542,11 +3614,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3558,14 +3630,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3575,14 +3647,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,7 +3663,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3608,11 +3680,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3624,14 +3696,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,14 +3713,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,14 +3729,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,11 +3746,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3690,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,11 +3779,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3723,14 +3795,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,11 +3812,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3756,14 +3828,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3780,7 +3852,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3806,14 +3878,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3822,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3911,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3855,28 +3927,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>33</v>
@@ -3888,31 +3960,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,14 +3993,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +4010,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +4026,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,11 +4043,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3987,28 +4059,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>33</v>
@@ -4020,14 +4092,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4037,14 +4109,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,7 +4125,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4066,15 +4138,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4086,7 +4158,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4103,11 +4175,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4119,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4224,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4241,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4257,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,11 +4274,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4218,14 +4290,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4307,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,31 +4323,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4356,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,11 +4373,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>33</v>
@@ -4317,14 +4389,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,11 +4406,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4357,24 +4429,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4455,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,11 +4472,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>33</v>
@@ -4416,28 +4488,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4449,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,14 +4538,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4482,14 +4554,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4571,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,14 +4587,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4604,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4620,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4569,10 +4641,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4670,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,31 +4686,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4654,7 +4726,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,31 +4752,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,31 +4785,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,31 +4818,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,31 +4851,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,31 +4884,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,31 +4917,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>299</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,31 +4950,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>111</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,31 +4983,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,31 +5016,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,14 +5066,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,31 +5082,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5060,14 +5132,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>152</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5093,11 +5165,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5109,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5126,11 +5198,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5149,7 +5221,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5192,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5208,7 +5280,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5225,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5241,14 +5313,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5258,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>154</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5274,7 +5346,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5291,11 +5363,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5307,14 +5379,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5324,11 +5396,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5340,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5357,11 +5429,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5373,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5390,11 +5462,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5406,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5423,49 +5495,412 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7396.7349999999997</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>333</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>334</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>335</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>339</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>336</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>64</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>340</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>341</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>342</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>64</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>340</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>343</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>12</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>64</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>340</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>344</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>294</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>64</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>247</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>345</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>12</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>64</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>247</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>346</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>347</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>64</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>340</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>348</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>64</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>349</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>350</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>351</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>64</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>165</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>352</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>12</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>64</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>57</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>353</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>354</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>64</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>53</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>355</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>356</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>64</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>87</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>8169.3500000000004</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>357</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>358</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>359</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6049,10 +6484,65 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:19 PM</t>
+    <t>Saturday, 27 September, 2025 11:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>250.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
   </si>
   <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
@@ -2317,7 +2326,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2334,7 +2343,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2367,7 +2376,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2400,7 +2409,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2482,7 +2491,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2492,11 +2501,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2525,7 +2534,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2591,7 +2600,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2614,7 +2623,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2631,7 +2640,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2657,11 +2666,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2697,7 +2706,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2713,7 +2722,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2822,11 +2831,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2845,7 +2854,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2961,7 +2970,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2977,7 +2986,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3024,7 +3033,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3076,7 +3085,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3109,17 +3118,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3142,13 +3151,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3156,10 +3165,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3189,10 +3198,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3241,7 +3250,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3274,7 +3283,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3284,11 +3293,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3373,13 +3382,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3390,7 +3399,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3406,21 +3415,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>33</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3449,11 +3458,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3486,10 +3495,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3522,7 +3531,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3538,7 +3547,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3571,7 +3580,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3588,7 +3597,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3604,7 +3613,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3621,7 +3630,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3637,7 +3646,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3654,7 +3663,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3670,7 +3679,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3713,7 +3722,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3736,7 +3745,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3835,7 +3844,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3852,7 +3861,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3868,7 +3877,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3934,24 +3943,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3967,13 +3976,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3984,7 +3993,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4033,7 +4042,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4083,7 +4092,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4116,7 +4125,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4132,7 +4141,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4208,11 +4217,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4274,11 +4283,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4297,7 +4306,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4330,13 +4339,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4347,7 +4356,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4363,24 +4372,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>34</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4435,18 +4444,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4455,7 +4464,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4468,15 +4477,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>33</v>
@@ -4488,31 +4497,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4521,7 +4530,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4534,15 +4543,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4611,7 +4620,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4627,7 +4636,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4644,7 +4653,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4660,7 +4669,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4677,7 +4686,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4693,7 +4702,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4752,14 +4761,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4776,7 +4785,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4825,7 +4834,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4835,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4891,7 +4900,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4967,14 +4976,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5000,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5023,7 +5032,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5056,13 +5065,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -5073,7 +5082,7 @@
         <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5089,24 +5098,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5115,31 +5124,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5148,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,14 +5174,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,11 +5207,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,14 +5240,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5254,7 +5263,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,11 +5273,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>39</v>
@@ -5297,14 +5306,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>325</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5330,14 +5339,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q116" s="12">
         <v>328</v>
-      </c>
-      <c t="s" r="Q116" s="12">
-        <v>127</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5363,14 +5372,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5379,14 +5388,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,11 +5405,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5412,14 +5421,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,11 +5438,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5445,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5462,11 +5471,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5478,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,14 +5504,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,14 +5537,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>340</v>
+        <v>53</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,11 +5570,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5577,14 +5586,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,11 +5603,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5610,14 +5619,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5627,11 +5636,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5643,14 +5652,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,11 +5669,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5676,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,14 +5702,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5709,14 +5718,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,14 +5735,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5742,14 +5751,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,11 +5768,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5775,14 +5784,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5792,11 +5801,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5808,14 +5817,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5825,11 +5834,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5841,14 +5850,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5858,49 +5867,82 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>8169.3500000000004</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>357</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>358</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
         <v>359</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>64</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>90</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>8252.3500000000004</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>360</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>361</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>362</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6539,10 +6581,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -1091,7 +1091,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:27 PM</t>
+    <t>Saturday, 27 September, 2025 11:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -704,6 +704,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -752,6 +761,15 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -863,9 +881,6 @@
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>TOTACAL 30 TABS</t>
   </si>
   <si>
@@ -893,9 +908,6 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -1091,7 +1103,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:34 PM</t>
+    <t>Saturday, 27 September, 2025 11:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4075,7 +4087,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4125,7 +4137,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,7 +4170,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4174,7 +4186,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>33</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>33</v>
@@ -4372,13 +4384,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4389,7 +4401,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4405,7 +4417,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,11 +4427,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>33</v>
@@ -4431,28 +4443,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4464,28 +4476,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>33</v>
@@ -4497,7 +4509,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4596,31 +4608,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,11 +4658,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4686,7 +4698,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4702,7 +4714,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4719,7 +4731,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4735,7 +4747,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,11 +4757,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>114</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4900,7 +4912,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,14 +4922,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4933,7 +4945,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4955,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4959,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4976,14 +4988,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4999,7 +5011,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5009,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5042,14 +5054,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,11 +5087,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>33</v>
@@ -5091,31 +5103,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5124,14 +5136,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>124</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5197,24 +5209,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5230,7 +5242,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,14 +5252,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5285,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,14 +5318,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>328</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,7 +5367,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5372,14 +5384,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5388,7 +5400,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5421,14 +5433,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,14 +5450,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5454,14 +5466,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5471,11 +5483,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5487,14 +5499,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5504,11 +5516,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5520,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5553,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5570,7 +5582,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5586,14 +5598,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,14 +5615,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>343</v>
+        <v>53</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5626,7 +5638,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,11 +5648,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5652,14 +5664,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,11 +5681,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5685,7 +5697,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5702,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5718,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,14 +5747,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>84</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5751,7 +5763,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5768,11 +5780,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5801,14 +5813,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5834,11 +5846,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>58</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5850,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,11 +5879,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5883,14 +5895,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,49 +5912,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>360</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>361</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>64</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>53</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>362</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>363</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>64</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>90</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>91</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>8252.3500000000004</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>360</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>361</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>362</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8315.3500000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>364</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>365</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>366</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6586,10 +6664,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -242,6 +242,9 @@
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -524,9 +527,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -1103,7 +1103,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:35 PM</t>
+    <t>Saturday, 27 September, 2025 11:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2338,7 +2338,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2381,11 +2381,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2447,11 +2447,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>39</v>
@@ -2463,14 +2463,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2480,11 +2480,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2513,11 +2513,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2546,11 +2546,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2562,14 +2562,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2595,14 +2595,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2612,11 +2612,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>33</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2645,11 +2645,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>33</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2678,11 +2678,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2694,14 +2694,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2711,11 +2711,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2744,11 +2744,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2777,11 +2777,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>41</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2843,11 +2843,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2859,14 +2859,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2876,11 +2876,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2892,14 +2892,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2909,14 +2909,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2925,14 +2925,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2958,14 +2958,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3008,11 +3008,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3041,11 +3041,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3107,11 +3107,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>39</v>
@@ -3123,14 +3123,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>33</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3173,11 +3173,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>33</v>
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3222,14 +3222,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3239,11 +3239,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3272,11 +3272,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -3321,14 +3321,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3338,11 +3338,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -3354,14 +3354,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3371,11 +3371,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>33</v>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>33</v>
@@ -4658,11 +4658,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4698,7 +4698,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4780,7 +4780,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4797,7 +4797,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4889,11 +4889,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4912,7 +4912,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5058,10 +5058,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>171</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5087,11 +5087,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>33</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5242,7 +5242,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5457,7 +5457,7 @@
         <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5622,7 +5622,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>171</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>39</v>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
@@ -5978,11 +5978,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>

--- a/DaySale_2025-09-27_00-00.xlsx
+++ b/DaySale_2025-09-27_00-00.xlsx
@@ -527,6 +527,15 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -1103,7 +1112,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Saturday, 27 September, 2025 11:58 PM</t>
+    <t>Saturday, 27 September, 2025 11:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3394,13 +3403,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3427,13 +3436,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3444,7 +3453,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3460,21 +3469,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>33</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3540,10 +3549,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3576,7 +3585,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3592,7 +3601,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3625,7 +3634,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3642,7 +3651,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3658,7 +3667,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3675,7 +3684,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3691,7 +3700,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3708,7 +3717,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3767,7 +3776,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3790,7 +3799,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3889,7 +3898,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3906,7 +3915,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3922,7 +3931,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3965,14 +3974,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3988,24 +3997,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4021,13 +4030,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -4038,7 +4047,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4087,7 +4096,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4120,7 +4129,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4170,7 +4179,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4203,7 +4212,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4219,7 +4228,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4295,11 +4304,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4328,14 +4337,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4351,7 +4360,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4365,7 +4374,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>33</v>
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4394,11 +4403,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>33</v>
@@ -4417,7 +4426,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4450,13 +4459,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4467,7 +4476,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4483,24 +4492,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>34</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4555,18 +4564,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4575,7 +4584,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4588,15 +4597,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>33</v>
@@ -4608,31 +4617,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4641,7 +4650,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4654,15 +4663,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4731,7 +4740,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4747,7 +4756,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4764,7 +4773,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4780,7 +4789,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4797,7 +4806,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4813,7 +4822,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4823,14 +4832,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4839,14 +4848,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4856,11 +4865,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4872,14 +4881,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4889,14 +4898,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4905,14 +4914,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4922,14 +4931,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4945,7 +4954,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4955,14 +4964,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4988,14 +4997,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5004,14 +5013,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5021,14 +5030,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5037,14 +5046,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5054,14 +5063,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5087,14 +5096,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5103,14 +5112,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5120,14 +5129,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5143,7 +5152,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5153,14 +5162,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5176,13 +5185,13 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5193,7 +5202,7 @@
         <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5209,24 +5218,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5235,31 +5244,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5268,14 +5277,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5289,10 +5298,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5301,14 +5310,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5318,11 +5327,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5334,14 +5343,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5351,14 +5360,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5374,7 +5383,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5384,11 +5393,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>39</v>
@@ -5417,14 +5426,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>332</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5450,14 +5459,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q119" s="12">
         <v>335</v>
-      </c>
-      <c t="s" r="Q119" s="12">
-        <v>131</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5483,14 +5492,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5499,14 +5508,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5516,11 +5525,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5532,14 +5541,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5549,11 +5558,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5565,14 +5574,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5582,11 +5591,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5598,14 +5607,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5615,14 +5624,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5631,14 +5640,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5648,14 +5657,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5664,14 +5673,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5681,11 +5690,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5697,14 +5706,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5714,11 +5723,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5730,14 +5739,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5747,11 +5756,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5763,14 +5772,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5780,11 +5789,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5796,14 +5805,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5813,14 +5822,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>85</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5829,14 +5838,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5846,14 +5855,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5862,14 +5871,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5879,11 +5888,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>169</v>
+        <v>359</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5895,14 +5904,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5912,11 +5921,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5928,14 +5937,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5945,11 +5954,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5961,14 +5970,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5978,49 +5987,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>365</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>366</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>64</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>91</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8315.3500000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>364</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>365</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>366</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>8360.25</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>367</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>368</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>369</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6674,10 +6716,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
